--- a/COVSCA/Adjacency_matrix_youngmen.xlsx
+++ b/COVSCA/Adjacency_matrix_youngmen.xlsx
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.162895509468913</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.175805941336879</v>
       </c>
     </row>
     <row r="9">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.18060041601226</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.162895509468913</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-0.174109457732615</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.18060041601226</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0.174109457732615</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.175805941336879</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
